--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0940482198125248</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.482804726794734</v>
+        <v>-1.491368013096277</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2088145396107415</v>
+        <v>0.1877533687219543</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1699900389323438</v>
+        <v>0.1746736198090922</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1233146266942827</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.411399483405809</v>
+        <v>-1.432755245981466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.206518188262785</v>
+        <v>0.1896953561567201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1504195141775289</v>
+        <v>0.1587626191147656</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1593373556777975</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.438524485662825</v>
+        <v>-1.473524783698013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1713885870441271</v>
+        <v>0.1548798640865874</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1799500435836396</v>
+        <v>0.1885901798904526</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1970552124523272</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.522367231491997</v>
+        <v>-1.56610281345957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1741118828658072</v>
+        <v>0.1547444616963494</v>
       </c>
       <c r="G5" t="n">
-        <v>0.158458878617745</v>
+        <v>0.1706658310421807</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2323980806434278</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.496090628896337</v>
+        <v>-1.543783376214652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2750256985164804</v>
+        <v>0.2492644788926727</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1896300946443081</v>
+        <v>0.2035027404369426</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.260591337009552</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.367990209000296</v>
+        <v>-1.418007973938374</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3438137722814799</v>
+        <v>0.327908260873244</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09686176963160519</v>
+        <v>0.1100153189463538</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2779674046942337</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.077788731162217</v>
+        <v>-1.138478278181356</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4124762023870692</v>
+        <v>0.4180087928458509</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04445860492676554</v>
+        <v>0.05709128198357132</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2807481022043956</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5748518006398288</v>
+        <v>-0.664827908794379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3791397679580506</v>
+        <v>0.3853707175917088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009286919181412029</v>
+        <v>0.01089345024396641</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2646107127184669</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009141148139669241</v>
+        <v>-0.07787440504994594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4038409454456702</v>
+        <v>0.4268386144831325</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03633453751866596</v>
+        <v>-0.03230784121077528</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2232574956460755</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6297268978413437</v>
+        <v>0.5108314007987843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2222132770375428</v>
+        <v>0.2548409836401802</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02766695478139931</v>
+        <v>-0.04031183025174005</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1509552026080223</v>
       </c>
       <c r="E12" t="n">
-        <v>1.330362296683494</v>
+        <v>1.206392869531067</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1544115210130295</v>
+        <v>-0.1068425875920949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03926696012628607</v>
+        <v>0.0185144090999334</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0443444487782021</v>
       </c>
       <c r="E13" t="n">
-        <v>1.988311787042754</v>
+        <v>1.84547019431039</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5282831371287611</v>
+        <v>-0.4730298131014777</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1489898601112314</v>
+        <v>0.1299408175350361</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09461280742580766</v>
       </c>
       <c r="E14" t="n">
-        <v>2.573741708936671</v>
+        <v>2.42069065399622</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.080081422986113</v>
+        <v>-1.032808301093401</v>
       </c>
       <c r="G14" t="n">
-        <v>0.284717338070007</v>
+        <v>0.2603546665579826</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2586882747861718</v>
       </c>
       <c r="E15" t="n">
-        <v>3.265712574644938</v>
+        <v>3.104808181070679</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.6964934854968</v>
+        <v>-1.661874997805257</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3828865106753139</v>
+        <v>0.3503435830467446</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4358272449492213</v>
       </c>
       <c r="E16" t="n">
-        <v>3.897030488574671</v>
+        <v>3.746056823459225</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.271096705457762</v>
+        <v>-2.247780657827037</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5864792524151692</v>
+        <v>0.5555934792653243</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6176498685586761</v>
       </c>
       <c r="E17" t="n">
-        <v>4.478099477629839</v>
+        <v>4.334607099535384</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.900961788335481</v>
+        <v>-2.889076264107692</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7810305300429112</v>
+        <v>0.7589422527344802</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8009828961733313</v>
       </c>
       <c r="E18" t="n">
-        <v>4.871926478447413</v>
+        <v>4.764989086193177</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.514470628424848</v>
+        <v>-3.513503599191864</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9828429133273389</v>
+        <v>0.9561680325297626</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9858770672787163</v>
       </c>
       <c r="E19" t="n">
-        <v>5.234071759631987</v>
+        <v>5.143905966146968</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.101749829810664</v>
+        <v>-4.109976744858981</v>
       </c>
       <c r="G19" t="n">
-        <v>1.230104145760325</v>
+        <v>1.208615420477137</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.171612504601204</v>
       </c>
       <c r="E20" t="n">
-        <v>5.607085827276211</v>
+        <v>5.526037128067221</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.66392500110187</v>
+        <v>-4.667202104898037</v>
       </c>
       <c r="G20" t="n">
-        <v>1.409400697341921</v>
+        <v>1.38935870390398</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.354748703285996</v>
       </c>
       <c r="E21" t="n">
-        <v>5.90857449715819</v>
+        <v>5.853758486256135</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.043660699564195</v>
+        <v>-5.07124741177351</v>
       </c>
       <c r="G21" t="n">
-        <v>1.550882166965138</v>
+        <v>1.540969736126629</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.527795180678742</v>
       </c>
       <c r="E22" t="n">
-        <v>6.087676484043904</v>
+        <v>6.04546021448211</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.326641936430931</v>
+        <v>-5.364365530287799</v>
       </c>
       <c r="G22" t="n">
-        <v>1.746670973646002</v>
+        <v>1.735147742300201</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.681753494591378</v>
       </c>
       <c r="E23" t="n">
-        <v>6.260556060185434</v>
+        <v>6.261322120555429</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.547829212413107</v>
+        <v>-5.592143151662406</v>
       </c>
       <c r="G23" t="n">
-        <v>1.873769293870146</v>
+        <v>1.871880369534257</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.80878691978546</v>
       </c>
       <c r="E24" t="n">
-        <v>6.444864329967869</v>
+        <v>6.465701659968289</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.643705998154856</v>
+        <v>-5.68835478385569</v>
       </c>
       <c r="G24" t="n">
-        <v>1.957365021825235</v>
+        <v>1.964322996905576</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.904153664739733</v>
       </c>
       <c r="E25" t="n">
-        <v>6.492094147492531</v>
+        <v>6.539804582510471</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.671309940623289</v>
+        <v>-5.733280778504106</v>
       </c>
       <c r="G25" t="n">
-        <v>2.018748048653836</v>
+        <v>2.029992546250363</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.964599545583467</v>
       </c>
       <c r="E26" t="n">
-        <v>6.54639172581935</v>
+        <v>6.597921484115087</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.642256674146734</v>
+        <v>-5.70223032677154</v>
       </c>
       <c r="G26" t="n">
-        <v>2.024067166875756</v>
+        <v>2.03886262265231</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.989320380008591</v>
       </c>
       <c r="E27" t="n">
-        <v>6.485804645473905</v>
+        <v>6.550045150673071</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.645579521993657</v>
+        <v>-5.719783843848348</v>
       </c>
       <c r="G27" t="n">
-        <v>2.035426329559511</v>
+        <v>2.057088882235572</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.978513937444659</v>
       </c>
       <c r="E28" t="n">
-        <v>6.448434805609552</v>
+        <v>6.528041652338708</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.525509622688019</v>
+        <v>-5.601262228180635</v>
       </c>
       <c r="G28" t="n">
-        <v>1.993241165952232</v>
+        <v>2.012010864858477</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.933585897393129</v>
       </c>
       <c r="E29" t="n">
-        <v>6.377792572987238</v>
+        <v>6.460945498531008</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.367454778515528</v>
+        <v>-5.438259250037856</v>
       </c>
       <c r="G29" t="n">
-        <v>1.90632624967428</v>
+        <v>1.921108897116623</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.857568460989112</v>
       </c>
       <c r="E30" t="n">
-        <v>6.28878196926398</v>
+        <v>6.388919965813829</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.181202691536297</v>
+        <v>-5.261435011919458</v>
       </c>
       <c r="G30" t="n">
-        <v>1.880987705079459</v>
+        <v>1.901782340632507</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.756096286276687</v>
       </c>
       <c r="E31" t="n">
-        <v>6.202485512552251</v>
+        <v>6.322728934290423</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.024229846644356</v>
+        <v>-5.102715964129987</v>
       </c>
       <c r="G31" t="n">
-        <v>1.773699608436092</v>
+        <v>1.799200391930928</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.63585303677717</v>
       </c>
       <c r="E32" t="n">
-        <v>6.046090872461868</v>
+        <v>6.173721653436813</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.773762261213705</v>
+        <v>-4.856090269042173</v>
       </c>
       <c r="G32" t="n">
-        <v>1.744788148516881</v>
+        <v>1.77835513296171</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.504176900844934</v>
       </c>
       <c r="E33" t="n">
-        <v>5.80651037111117</v>
+        <v>5.945935798133068</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.612218060849538</v>
+        <v>-4.698601736218042</v>
       </c>
       <c r="G33" t="n">
-        <v>1.647709514081599</v>
+        <v>1.679887099224796</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.368378304792788</v>
       </c>
       <c r="E34" t="n">
-        <v>5.599748481534932</v>
+        <v>5.746675932880832</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.39326690654849</v>
+        <v>-4.47302501360548</v>
       </c>
       <c r="G34" t="n">
-        <v>1.512513886952948</v>
+        <v>1.541007551208587</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.234535035602527</v>
       </c>
       <c r="E35" t="n">
-        <v>5.380636918095899</v>
+        <v>5.551379332186103</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.261333745119764</v>
+        <v>-4.337647935075496</v>
       </c>
       <c r="G35" t="n">
-        <v>1.471763866698057</v>
+        <v>1.508143805304048</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.108299014296769</v>
       </c>
       <c r="E36" t="n">
-        <v>5.150646809466387</v>
+        <v>5.333169231507305</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.070084578035936</v>
+        <v>-4.142152195279809</v>
       </c>
       <c r="G36" t="n">
-        <v>1.431240736934916</v>
+        <v>1.458785974538211</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9928523410700731</v>
       </c>
       <c r="E37" t="n">
-        <v>4.834276075071756</v>
+        <v>5.030608321075603</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.953536970638518</v>
+        <v>-4.018349886392812</v>
       </c>
       <c r="G37" t="n">
-        <v>1.354825605107182</v>
+        <v>1.385532061578063</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8886753652383571</v>
       </c>
       <c r="E38" t="n">
-        <v>4.558402853771842</v>
+        <v>4.758432438918135</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.872918265506637</v>
+        <v>-3.935963631139714</v>
       </c>
       <c r="G38" t="n">
-        <v>1.267351391568652</v>
+        <v>1.296521457854805</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7966807922903545</v>
       </c>
       <c r="E39" t="n">
-        <v>4.286362374004613</v>
+        <v>4.486904292519374</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.860196844991364</v>
+        <v>-3.923458427504349</v>
       </c>
       <c r="G39" t="n">
-        <v>1.211033146039767</v>
+        <v>1.252433951656748</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7156865265100409</v>
       </c>
       <c r="E40" t="n">
-        <v>3.975074718529999</v>
+        <v>4.185572982171996</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.757266631583362</v>
+        <v>-3.817689643266761</v>
       </c>
       <c r="G40" t="n">
-        <v>1.124893438941962</v>
+        <v>1.158412239653328</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6440902747024178</v>
       </c>
       <c r="E41" t="n">
-        <v>3.776841959697406</v>
+        <v>3.995585131047683</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.674849880296427</v>
+        <v>-3.740988458641633</v>
       </c>
       <c r="G41" t="n">
-        <v>1.066105624592923</v>
+        <v>1.098152686711297</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.579708237965038</v>
       </c>
       <c r="E42" t="n">
-        <v>3.470050639451779</v>
+        <v>3.684745157349803</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.655223852760028</v>
+        <v>-3.741174484448041</v>
       </c>
       <c r="G42" t="n">
-        <v>1.048204452730368</v>
+        <v>1.078902370311774</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5201881551671573</v>
       </c>
       <c r="E43" t="n">
-        <v>3.15979009039681</v>
+        <v>3.365330918778198</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.564078526668152</v>
+        <v>-3.646200686268217</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9835504213123666</v>
+        <v>1.022868347818253</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4638642109636955</v>
       </c>
       <c r="E44" t="n">
-        <v>2.940582159490851</v>
+        <v>3.142866011458405</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.513555137489049</v>
+        <v>-3.590673202896735</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9695631104325034</v>
+        <v>1.007748414241669</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4092156579414452</v>
       </c>
       <c r="E45" t="n">
-        <v>2.656972704327064</v>
+        <v>2.849711297703511</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.416421000272184</v>
+        <v>-3.497966784832722</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8868060234079431</v>
+        <v>0.9210695372656188</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3551707184789875</v>
       </c>
       <c r="E46" t="n">
-        <v>2.478683131782779</v>
+        <v>2.651831073022078</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.355153248451488</v>
+        <v>-3.446572733887562</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8714134552888524</v>
+        <v>0.9130972640998449</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.301009485119933</v>
       </c>
       <c r="E47" t="n">
-        <v>2.24658635713578</v>
+        <v>2.415295295689707</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.255938976766573</v>
+        <v>-3.345623542837638</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7706661479829314</v>
+        <v>0.8097468153455633</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.247061953349223</v>
       </c>
       <c r="E48" t="n">
-        <v>2.096250669048211</v>
+        <v>2.249540812893947</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.22617637254296</v>
+        <v>-3.321543569559286</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6869356275582813</v>
+        <v>0.7186515027491803</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1933875607464391</v>
       </c>
       <c r="E49" t="n">
-        <v>1.881132866200525</v>
+        <v>2.023761596616705</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.162939186857045</v>
+        <v>-3.252610944593898</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6058704604910202</v>
+        <v>0.6361072780408051</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1399444090863904</v>
       </c>
       <c r="E50" t="n">
-        <v>1.766620869061754</v>
+        <v>1.892270017757945</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.085506097419818</v>
+        <v>-3.180800713875611</v>
       </c>
       <c r="G50" t="n">
-        <v>0.553023273533508</v>
+        <v>0.5744442976215764</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08691059045861944</v>
       </c>
       <c r="E51" t="n">
-        <v>1.62600548679952</v>
+        <v>1.729458402227495</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.011031733185496</v>
+        <v>-3.10852816328435</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4788099553488345</v>
+        <v>0.5018612974058506</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03422919955346048</v>
       </c>
       <c r="E52" t="n">
-        <v>1.542955027929444</v>
+        <v>1.632654842017427</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.899684004517694</v>
+        <v>-2.987198472820889</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3914406481667054</v>
+        <v>0.4114655638256977</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.018417008774083</v>
       </c>
       <c r="E53" t="n">
-        <v>1.433174795400884</v>
+        <v>1.505260100344383</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.863003984938743</v>
+        <v>-2.948428865003399</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3929465423175964</v>
+        <v>0.4092704593100814</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07092857718621949</v>
       </c>
       <c r="E54" t="n">
-        <v>1.283363639095319</v>
+        <v>1.324641240735597</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.814775117345567</v>
+        <v>-2.896774072968929</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3241505395837992</v>
+        <v>0.3354828657577781</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1240406021451429</v>
       </c>
       <c r="E55" t="n">
-        <v>1.2148042855841</v>
+        <v>1.246014536533975</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.778398838263636</v>
+        <v>-2.861524927297629</v>
       </c>
       <c r="G55" t="n">
-        <v>0.291248978597302</v>
+        <v>0.3008564490974374</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.177648933724748</v>
       </c>
       <c r="E56" t="n">
-        <v>1.159458253613951</v>
+        <v>1.174855091177779</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.742254329038869</v>
+        <v>-2.816161467043815</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2503068333292351</v>
+        <v>0.2467180600672495</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2321595446555402</v>
       </c>
       <c r="E57" t="n">
-        <v>1.012643637593249</v>
+        <v>1.020856219505662</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.722418488789669</v>
+        <v>-2.800739012811564</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2027031344297259</v>
+        <v>0.1992375651444435</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2875655907317426</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9701358259479699</v>
+        <v>0.9590340497898017</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.742307392137747</v>
+        <v>-2.821509251537542</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1729109490532903</v>
+        <v>0.1666629216406832</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3436025039666818</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8871707559726385</v>
+        <v>0.8649647639735952</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.680685886324536</v>
+        <v>-2.769567186864324</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1665482565534545</v>
+        <v>0.1554287926956607</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3995338734592454</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8283439067002883</v>
+        <v>0.7800211113228932</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.701479302036232</v>
+        <v>-2.783485576707715</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1178168143226382</v>
+        <v>0.1032384903070061</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4548338420907461</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8635009543493999</v>
+        <v>0.8029218029727525</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.709777272843389</v>
+        <v>-2.783161098907685</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1190866691716277</v>
+        <v>0.1013471262884104</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.508643863893234</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8284055086886398</v>
+        <v>0.7542714801919437</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.691324122768376</v>
+        <v>-2.753338417497412</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07215205325451111</v>
+        <v>0.04311677943791981</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.560139575584451</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8202222029687112</v>
+        <v>0.7230984344033504</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.687156534784157</v>
+        <v>-2.747814975848781</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04471416169032297</v>
+        <v>0.01488416123192896</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6079966309169248</v>
       </c>
       <c r="E64" t="n">
-        <v>0.833147641950356</v>
+        <v>0.7090232949460354</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.768230850661569</v>
+        <v>-2.825585961340926</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08093796060306688</v>
+        <v>0.04590045740659795</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.651043334886988</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8214341153534096</v>
+        <v>0.6811090553333071</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.87856977053003</v>
+        <v>-2.926623590888979</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01724699393365093</v>
+        <v>-0.02319867590354303</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.687999027471206</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8129495088191673</v>
+        <v>0.6544890673966381</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.945132853666252</v>
+        <v>-2.990783586558814</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.00100854184209519</v>
+        <v>-0.04236238356696701</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7178112727041119</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7595363154736329</v>
+        <v>0.5617024447636328</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.955019667836339</v>
+        <v>-2.982207186962722</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05078050874744371</v>
+        <v>-0.09598538962530277</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7396074055031883</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7684966601357386</v>
+        <v>0.5639060881687236</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.021056999349204</v>
+        <v>-3.038261031878237</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1172880891020822</v>
+        <v>-0.1711495741450264</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.752884675008933</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7308541857288787</v>
+        <v>0.5121110143786017</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.047950231749057</v>
+        <v>-3.063911855859553</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09894045530414711</v>
+        <v>-0.1590188618051843</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7579944528089758</v>
       </c>
       <c r="E70" t="n">
-        <v>0.706986159885697</v>
+        <v>0.4727699108869985</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.115548960194397</v>
+        <v>-3.130764651317231</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1081435483955986</v>
+        <v>-0.1676431401744019</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7548958207007647</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6780814090939298</v>
+        <v>0.4352036765647321</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.147193474666117</v>
+        <v>-3.149158944046937</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1341340981938635</v>
+        <v>-0.2029179025141258</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.743647142487705</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6455061556694928</v>
+        <v>0.3915321362682176</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.208061118522866</v>
+        <v>-3.202277240745264</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2033277692089005</v>
+        <v>-0.2763358841363198</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7241795197118697</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6478128756689538</v>
+        <v>0.3939687693718262</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.264481220804768</v>
+        <v>-3.249827266625219</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2866026788880198</v>
+        <v>-0.3615631499017096</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6966912297379695</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5888683117059913</v>
+        <v>0.3218371104568938</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.301481143778674</v>
+        <v>-3.279285520431135</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.330369366810107</v>
+        <v>-0.4083019812815901</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6613331208698976</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5944478660568826</v>
+        <v>0.33522181970813</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.294812576059449</v>
+        <v>-3.261309938246017</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3172493631325795</v>
+        <v>-0.3885747069128509</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6184548341451188</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6019071959335113</v>
+        <v>0.3471799244964524</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.349908540552132</v>
+        <v>-3.319664708914564</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3399585396899399</v>
+        <v>-0.4215238417121345</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5687828145166854</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5204980336045643</v>
+        <v>0.277500756622724</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.376570003094819</v>
+        <v>-3.338852508444719</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3597065513616886</v>
+        <v>-0.4354782168754533</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5129342653012572</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5615304471327899</v>
+        <v>0.3198585277815231</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.361904460422412</v>
+        <v>-3.325926764502736</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3302492124367876</v>
+        <v>-0.4069693046028955</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4513087711006926</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5911274578926661</v>
+        <v>0.3677513290818109</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.325146066036499</v>
+        <v>-3.294417347460916</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2859079792372038</v>
+        <v>-0.357061935307309</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3843579578945588</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6446699544216712</v>
+        <v>0.4237493662554036</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.287396245590531</v>
+        <v>-3.248046908169792</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2998086813809688</v>
+        <v>-0.3624670523446503</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3130425287150402</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8161650106269831</v>
+        <v>0.6115201557197375</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.167548662371568</v>
+        <v>-3.130424620539944</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3197152724286719</v>
+        <v>-0.3820869806742818</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2389709775275073</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9059416747202367</v>
+        <v>0.7080309540049664</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.039976128821252</v>
+        <v>-2.99229801959918</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2836598116227104</v>
+        <v>-0.3517903908981755</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1643680984403596</v>
       </c>
       <c r="E83" t="n">
-        <v>1.097098133861199</v>
+        <v>0.910816770689484</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.896568529700865</v>
+        <v>-2.849837627289782</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2443790902781053</v>
+        <v>-0.3051082821412326</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09126480328471968</v>
       </c>
       <c r="E84" t="n">
-        <v>1.375195735869213</v>
+        <v>1.206075710779158</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.801035434260463</v>
+        <v>-2.752200915435277</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2817513698251658</v>
+        <v>-0.3486987029877396</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.02260799671489706</v>
       </c>
       <c r="E85" t="n">
-        <v>1.589011358072043</v>
+        <v>1.433072938647867</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.582472799430504</v>
+        <v>-2.530286766486586</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2337878177263752</v>
+        <v>-0.3027143434849965</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03962233933490217</v>
       </c>
       <c r="E86" t="n">
-        <v>1.847160284505658</v>
+        <v>1.72258154659716</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.378394560831957</v>
+        <v>-2.321987876804943</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2513559728994263</v>
+        <v>-0.3220549281446775</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09322833865419715</v>
       </c>
       <c r="E87" t="n">
-        <v>2.014029092377836</v>
+        <v>1.905545551208043</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.121742989659758</v>
+        <v>-2.074407655858018</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2421205540121072</v>
+        <v>-0.3109153369045509</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1366071678581866</v>
       </c>
       <c r="E88" t="n">
-        <v>2.203500340688944</v>
+        <v>2.111394389531189</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.806742747025779</v>
+        <v>-1.764571001673388</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1971163370368983</v>
+        <v>-0.2575741141988728</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1675922268713358</v>
       </c>
       <c r="E89" t="n">
-        <v>2.27111858659594</v>
+        <v>2.187975419782998</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.58038532594698</v>
+        <v>-1.539793275147366</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2200237378142018</v>
+        <v>-0.2768573663149393</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1843722255700873</v>
       </c>
       <c r="E90" t="n">
-        <v>2.398328522303929</v>
+        <v>2.334447870304045</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.394601048126814</v>
+        <v>-1.370982479840422</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2353687321205062</v>
+        <v>-0.2889502635728231</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1855874727963341</v>
       </c>
       <c r="E91" t="n">
-        <v>2.418360757011043</v>
+        <v>2.361007476093715</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.07139615254922</v>
+        <v>-1.067660388404139</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1949816146682801</v>
+        <v>-0.2464265939899485</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1715238944308556</v>
       </c>
       <c r="E92" t="n">
-        <v>2.348866395102369</v>
+        <v>2.29607288116441</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9103057331685537</v>
+        <v>-0.9142366719301949</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1983819224411505</v>
+        <v>-0.2450609815947096</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1445604922855855</v>
       </c>
       <c r="E93" t="n">
-        <v>2.282343566730812</v>
+        <v>2.232231264087837</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6739956264865791</v>
+        <v>-0.6997964909543755</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2105882649449094</v>
+        <v>-0.2416545746150717</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1087844073487852</v>
       </c>
       <c r="E94" t="n">
-        <v>2.214005614425252</v>
+        <v>2.169958362991861</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4330635409162077</v>
+        <v>-0.4613345841248337</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1912360917923702</v>
+        <v>-0.2093446366850201</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0692348147230301</v>
       </c>
       <c r="E95" t="n">
-        <v>2.056835155234045</v>
+        <v>2.00706440817005</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2375540779052945</v>
+        <v>-0.2823978857425187</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.196317950871035</v>
+        <v>-0.2060943693986297</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03185165814046449</v>
       </c>
       <c r="E96" t="n">
-        <v>1.909145912962887</v>
+        <v>1.861616624385941</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.09372502359727447</v>
+        <v>-0.1487904920561194</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2113829915867121</v>
+        <v>-0.2071666099483528</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.002554052378715317</v>
       </c>
       <c r="E97" t="n">
-        <v>1.75929938125807</v>
+        <v>1.716692152542481</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07383909384639624</v>
+        <v>0.0272917775590147</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2038016775747337</v>
+        <v>-0.198373383551676</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01581481418242241</v>
       </c>
       <c r="E98" t="n">
-        <v>1.580654224959241</v>
+        <v>1.549487888298092</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1829014497384235</v>
+        <v>0.1397349237622564</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2816062087040997</v>
+        <v>-0.2656525135624008</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02332066474467028</v>
       </c>
       <c r="E99" t="n">
-        <v>1.475549034417955</v>
+        <v>1.460332123453768</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2916521361646324</v>
+        <v>0.2556198523443874</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2599851306340578</v>
+        <v>-0.2440509529540148</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02274314713252523</v>
       </c>
       <c r="E100" t="n">
-        <v>1.322870641010997</v>
+        <v>1.311256531484361</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3402585446567154</v>
+        <v>0.3064683292441963</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3310628466195695</v>
+        <v>-0.3078120605012568</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01829175487878705</v>
       </c>
       <c r="E101" t="n">
-        <v>1.259158327117895</v>
+        <v>1.257102284516578</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4004381979900928</v>
+        <v>0.3803833962179399</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3444823213493803</v>
+        <v>-0.3248245779377903</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01667625239891692</v>
       </c>
       <c r="E102" t="n">
-        <v>1.130003964292434</v>
+        <v>1.148293655626078</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4145273656229729</v>
+        <v>0.4010401896980431</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3848883463425856</v>
+        <v>-0.3620163209645335</v>
       </c>
     </row>
   </sheetData>
